--- a/story/Main Story and Others 主线剧情等/rune 危机合约/ui_rune_overall_cc.xlsx
+++ b/story/Main Story and Others 主线剧情等/rune 危机合约/ui_rune_overall_cc.xlsx
@@ -196,7 +196,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">People took refuge within the wisdom of their predecessors, constructing havens of concrete and steel known as "nomadic cities" to escape annihilation.
+    <t xml:space="preserve">People took refuge within the wisdom of their predecessors, constructing havens of concrete and steel known as 'nomadic cities' to escape annihilation.
 </t>
   </si>
   <si>
@@ -216,7 +216,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">While people across the world were searching for a way to survive, a special information exchange network - called the "Contingency Contract" system - came into existence.
+    <t xml:space="preserve">While people across the world were searching for a way to survive, a special information exchange network - called the 'Contingency Contract' system - came into existence.
 </t>
   </si>
   <si>
@@ -256,7 +256,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">No matter what disasters await this world, the "Contingency Contract" network will always continue to weave the web that never sees the light of day.
+    <t xml:space="preserve">No matter what disasters await this world, the 'Contingency Contract' network will always continue to weave the web that never sees the light of day.
 </t>
   </si>
   <si>
@@ -264,7 +264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">——"Contingency Contract"
+    <t xml:space="preserve">——'Contingency Contract'
 </t>
   </si>
   <si>
